--- a/static/file/supTopic_example.xlsx
+++ b/static/file/supTopic_example.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,54 +27,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>supervisor_id</t>
-  </si>
-  <si>
-    <t>quota</t>
-  </si>
-  <si>
-    <t>is_custom</t>
-  </si>
-  <si>
-    <t>type_id</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>required_skills</t>
-  </si>
-  <si>
-    <t>reference</t>
-  </si>
-  <si>
-    <t>sample-t1</t>
-  </si>
-  <si>
-    <t>some description</t>
-  </si>
-  <si>
-    <t>some required skills</t>
-  </si>
-  <si>
-    <t>some references</t>
-  </si>
-  <si>
-    <t>sample-t2</t>
-  </si>
-  <si>
-    <t>sample-t3</t>
-  </si>
-  <si>
-    <t>sample-t4</t>
-  </si>
-  <si>
-    <t>sample-t5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+  <si>
+    <t>Staff member</t>
+  </si>
+  <si>
+    <t>Staff Expertise (Projects/Research Interests)</t>
+  </si>
+  <si>
+    <t>Proposed Titles</t>
+  </si>
+  <si>
+    <t>Topic details</t>
+  </si>
+  <si>
+    <t>Required skills</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>Number of Students to Supervise</t>
+  </si>
+  <si>
+    <t>Joojo Walker</t>
+  </si>
+  <si>
+    <t>Deep Learning, Machine Learning, Information Systems, Recommender Systems, Sentiment Analysis, Business Intelligence &amp; Analytics, Information Security, and Software Development</t>
+  </si>
+  <si>
+    <t>Recommendation using Federated Learning</t>
+  </si>
+  <si>
+    <t>1.        To research key recommender systems that use federated learning and conduct a comparative 
+study on the merits and demerits of the models.
+2.        Implement the most efficient model.</t>
+  </si>
+  <si>
+    <t>Programming skills in at least Python, preferably experience with deep learning coding frameworks like PyTorch, or Tensorflow;  Some knowledge of machine learning applied to recommender systems.</t>
+  </si>
+  <si>
+    <t>Project resources to be given later</t>
+  </si>
+  <si>
+    <t>Drug Recommendations with Deep Learning</t>
+  </si>
+  <si>
+    <t>1.        To research key drug recommender systems that employ deep learning models, and carry out a comparative 
+study on the merits and demerits of the models.
+2.        Implement the most efficient model.</t>
+  </si>
+  <si>
+    <t>Clivia Li</t>
+  </si>
+  <si>
+    <t>Advanced Web Applications, Information Systems, Software Development, Wechat Mini-programs</t>
+  </si>
+  <si>
+    <t>Collaborative Code Editor</t>
+  </si>
+  <si>
+    <t>This project aims to create a web application that enables multiple users to collaboratively write and edit code in real-time. It provides an interactive and seamless environment where developers can work together on coding projects, troubleshoot issues, and share their knowledge efficiently. Key features include a code editor interface where users can write, edit, and save code with changes made by multiple users synchronized in real-time, a chat or messaging system to facilitate communication, and code execution and testing capabilities to run code snippets and display output and errors.</t>
+  </si>
+  <si>
+    <t>Web frontend and backend skills; user authentication; real-time communication; database skills</t>
+  </si>
+  <si>
+    <t>https://geekflare.com/best-collaborative-coding-tools/</t>
+  </si>
+  <si>
+    <t>Task Management Tool for Agile Projects</t>
+  </si>
+  <si>
+    <t>This project aims to develop a web application that helps software development teams engaged in an agile project to manage their tasks and workflow. It allows the user to put together a product backlog, build their sprint plans, break down user stories to tasks, and assign tasks to team members. It provides autocorrection and suggestion for the phrasing and content of user stories.</t>
+  </si>
+  <si>
+    <t>Web frontend and backend skills; user authentication; database skills</t>
+  </si>
+  <si>
+    <t>https://www.proofhub.com/articles/agile-project-management-tools-list</t>
   </si>
 </sst>
 </file>
@@ -85,14 +114,57 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Trebuchet MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -436,12 +508,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -544,13 +631,11 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,143 +644,181 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -758,9 +881,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="WPS">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -774,31 +897,31 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4874CB"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EE822F"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="F2BA02"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="75BD42"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="30C0B4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="E54C5E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0026E5"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7E1FAD"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="WPS">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
@@ -870,40 +993,66 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="WPS">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumOff val="17500"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:hueOff val="-2520000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -917,38 +1066,20 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="phClr">
-                  <a:hueOff val="-4200000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="phClr"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="2700000" scaled="1"/>
-          </a:gradFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="phClr">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
@@ -1007,207 +1138,161 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="33.1388888888889" style="3" customWidth="1"/>
+    <col min="2" max="2" width="64.8611111111111" style="2" customWidth="1"/>
+    <col min="3" max="3" width="108" style="4" customWidth="1"/>
+    <col min="4" max="4" width="68.1388888888889" style="5" customWidth="1"/>
+    <col min="5" max="5" width="74.4259259259259" style="2" customWidth="1"/>
+    <col min="6" max="6" width="100.138888888889" style="2" customWidth="1"/>
+    <col min="7" max="7" width="45.5833333333333" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="60" spans="1:7">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="60" spans="1:7">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="135" spans="1:7">
+      <c r="A4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="90" spans="1:7">
+      <c r="A5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="11">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" display="https://geekflare.com/best-collaborative-coding-tools/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/static/file/supTopic_example.xlsx
+++ b/static/file/supTopic_example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="18348" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Staff member</t>
   </si>
@@ -38,10 +38,10 @@
     <t>Proposed Titles</t>
   </si>
   <si>
-    <t>Topic details</t>
-  </si>
-  <si>
-    <t>Required skills</t>
+    <t xml:space="preserve">Topic details </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required skills </t>
   </si>
   <si>
     <t>References</t>
@@ -64,7 +64,26 @@
 2.        Implement the most efficient model.</t>
   </si>
   <si>
-    <t>Programming skills in at least Python, preferably experience with deep learning coding frameworks like PyTorch, or Tensorflow;  Some knowledge of machine learning applied to recommender systems.</t>
+    <r>
+      <t xml:space="preserve">Programming skills in at least Python, preferably experience with deep learning coding frameworks like PyTorch, or Tensorflow;  Some knowledge of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>machine learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> applied to recommender systems.</t>
+    </r>
   </si>
   <si>
     <t>Project resources to be given later</t>
@@ -78,34 +97,39 @@
 2.        Implement the most efficient model.</t>
   </si>
   <si>
-    <t>Clivia Li</t>
-  </si>
-  <si>
-    <t>Advanced Web Applications, Information Systems, Software Development, Wechat Mini-programs</t>
-  </si>
-  <si>
-    <t>Collaborative Code Editor</t>
-  </si>
-  <si>
-    <t>This project aims to create a web application that enables multiple users to collaboratively write and edit code in real-time. It provides an interactive and seamless environment where developers can work together on coding projects, troubleshoot issues, and share their knowledge efficiently. Key features include a code editor interface where users can write, edit, and save code with changes made by multiple users synchronized in real-time, a chat or messaging system to facilitate communication, and code execution and testing capabilities to run code snippets and display output and errors.</t>
-  </si>
-  <si>
-    <t>Web frontend and backend skills; user authentication; real-time communication; database skills</t>
-  </si>
-  <si>
-    <t>https://geekflare.com/best-collaborative-coding-tools/</t>
-  </si>
-  <si>
-    <t>Task Management Tool for Agile Projects</t>
-  </si>
-  <si>
-    <t>This project aims to develop a web application that helps software development teams engaged in an agile project to manage their tasks and workflow. It allows the user to put together a product backlog, build their sprint plans, break down user stories to tasks, and assign tasks to team members. It provides autocorrection and suggestion for the phrasing and content of user stories.</t>
-  </si>
-  <si>
-    <t>Web frontend and backend skills; user authentication; database skills</t>
-  </si>
-  <si>
-    <t>https://www.proofhub.com/articles/agile-project-management-tools-list</t>
+    <t>Programming skills in at least Python, preferably experience with deep learning coding frameworks like PyTorch, or Tensorflow;  Some knowledge of machine learning applied to recommender systems.</t>
+  </si>
+  <si>
+    <t>Albert Xu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep Learning, Information Systems,web-based systems </t>
+  </si>
+  <si>
+    <t>Deep Learning-Based Medical Image Diagnosis System</t>
+  </si>
+  <si>
+    <t>Develop a deep learning system that can automatically analyze medical images (such as X-rays, MRI, CT scans) to detect diseases like pneumonia, tumors, etc.</t>
+  </si>
+  <si>
+    <t>Deep Learning Frameworks (TensorFlow, PyTorch)
+Medical Image Processing (CNN, U-Net)
+Data Annotation and Preprocessing</t>
+  </si>
+  <si>
+    <t>Rajpurkar P, et al. CheXNet: Radiologist-level pneumonia detection on chest X-rays with deep learning.</t>
+  </si>
+  <si>
+    <t>Multi-Objective Segmentation of Joystick Maps Based on Deep Learning</t>
+  </si>
+  <si>
+    <t>Multi-Objective Identification of Features in High-Resolution Remote Sensing Satellite Maps using Deep Learning: Road, Building, Water Body, Farmland, and More.</t>
+  </si>
+  <si>
+    <t>Python Programming,Deep Learning Frameworks: Familiarity with deep learning frameworks like TensorFlow, PyTorch.etc</t>
+  </si>
+  <si>
+    <t>Sun Y, Hu J, Yun J, et al. Multi-objective location and mapping based on deep learning and visual slam[J]. Sensors, 2022, 22(19): 7576.</t>
   </si>
 </sst>
 </file>
@@ -118,7 +142,7 @@
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,12 +170,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
       <sz val="12"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -647,137 +665,137 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -802,23 +820,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1141,7 +1162,7 @@
   <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -1178,23 +1199,23 @@
       <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="60" spans="1:7">
       <c r="A2" s="7" t="s">
@@ -1233,7 +1254,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>12</v>
@@ -1242,56 +1263,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="135" spans="1:7">
+    <row r="4" s="2" customFormat="1" ht="45" spans="1:7">
       <c r="A4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
+      <c r="C4" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="11">
-        <v>2</v>
+      <c r="F4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" ht="90" spans="1:7">
+    <row r="5" s="2" customFormat="1" ht="45" spans="1:7">
       <c r="A5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>21</v>
+      <c r="B5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="11">
-        <v>2</v>
+      <c r="F5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" display="https://geekflare.com/best-collaborative-coding-tools/"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/static/file/supTopic_example.xlsx
+++ b/static/file/supTopic_example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18348" windowHeight="6900"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Staff member</t>
   </si>
@@ -50,43 +50,10 @@
     <t>Number of Students to Supervise</t>
   </si>
   <si>
-    <t>Joojo Walker</t>
-  </si>
-  <si>
-    <t>Deep Learning, Machine Learning, Information Systems, Recommender Systems, Sentiment Analysis, Business Intelligence &amp; Analytics, Information Security, and Software Development</t>
-  </si>
-  <si>
-    <t>Recommendation using Federated Learning</t>
-  </si>
-  <si>
-    <t>1.        To research key recommender systems that use federated learning and conduct a comparative 
-study on the merits and demerits of the models.
-2.        Implement the most efficient model.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Programming skills in at least Python, preferably experience with deep learning coding frameworks like PyTorch, or Tensorflow;  Some knowledge of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>machine learning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> applied to recommender systems.</t>
-    </r>
-  </si>
-  <si>
-    <t>Project resources to be given later</t>
+    <t>Supervisor One</t>
+  </si>
+  <si>
+    <t>Deep Learning, Machine Learning</t>
   </si>
   <si>
     <t>Drug Recommendations with Deep Learning</t>
@@ -100,10 +67,13 @@
     <t>Programming skills in at least Python, preferably experience with deep learning coding frameworks like PyTorch, or Tensorflow;  Some knowledge of machine learning applied to recommender systems.</t>
   </si>
   <si>
-    <t>Albert Xu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deep Learning, Information Systems,web-based systems </t>
+    <t>Project resources to be given later</t>
+  </si>
+  <si>
+    <t>Supervisor Middle Three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">web-based systems </t>
   </si>
   <si>
     <t>Deep Learning-Based Medical Image Diagnosis System</t>
@@ -118,18 +88,6 @@
   </si>
   <si>
     <t>Rajpurkar P, et al. CheXNet: Radiologist-level pneumonia detection on chest X-rays with deep learning.</t>
-  </si>
-  <si>
-    <t>Multi-Objective Segmentation of Joystick Maps Based on Deep Learning</t>
-  </si>
-  <si>
-    <t>Multi-Objective Identification of Features in High-Resolution Remote Sensing Satellite Maps using Deep Learning: Road, Building, Water Body, Farmland, and More.</t>
-  </si>
-  <si>
-    <t>Python Programming,Deep Learning Frameworks: Familiarity with deep learning frameworks like TensorFlow, PyTorch.etc</t>
-  </si>
-  <si>
-    <t>Sun Y, Hu J, Yun J, et al. Multi-objective location and mapping based on deep learning and visual slam[J]. Sensors, 2022, 22(19): 7576.</t>
   </si>
 </sst>
 </file>
@@ -170,7 +128,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -795,7 +753,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -817,23 +775,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1162,7 +1117,7 @@
   <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -1199,113 +1154,113 @@
       <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="60" spans="1:7">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="2" customFormat="1" ht="55.2" spans="1:7">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="11">
-        <v>2</v>
+      <c r="G2" s="9">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="60" spans="1:7">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="2" customFormat="1" ht="41.4" spans="1:7">
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="55.2" spans="1:7">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="41.4" spans="1:7">
+      <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="45" spans="1:7">
-      <c r="A4" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="E5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="F5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="45" spans="1:7">
-      <c r="A5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="14">
+      <c r="G5" s="9">
         <v>1</v>
       </c>
     </row>
